--- a/Azmat Timesheet -September.xlsx
+++ b/Azmat Timesheet -September.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="September 1st Week" sheetId="1" r:id="rId1"/>
     <sheet name="September 2nd Week" sheetId="4" r:id="rId2"/>
-    <sheet name="2nd Week" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="September 3rd Week" sheetId="5" r:id="rId3"/>
+    <sheet name="2nd Week" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +105,48 @@
   </si>
   <si>
     <t>Managing data</t>
+  </si>
+  <si>
+    <t>Finazlie DMS</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Working on DMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Finalize CR</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>TFF Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SVN</t>
+  </si>
+  <si>
+    <t>Enperio Installation Guide</t>
+  </si>
+  <si>
+    <t>TFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Enperio</t>
+  </si>
+  <si>
+    <t>Managing and handling over enperio to Yousuf for Nournet</t>
+  </si>
+  <si>
+    <t>Meeting with Boss</t>
   </si>
 </sst>
 </file>
@@ -299,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -351,6 +394,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1429,11 +1491,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <pane ySplit="3" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,148 +2094,242 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="12">
+      <c r="A78" s="21">
         <v>42254</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17">
+      <c r="C78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="22">
         <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D79" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="26">
         <v>5.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="12">
+      <c r="A81" s="21">
         <f>A78+1</f>
         <v>42255</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
+      <c r="C81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="27">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
+      <c r="C83" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="12">
+      <c r="A85" s="21">
         <f>A81+1</f>
         <v>42256</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
+      <c r="C85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="26"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="12">
+      <c r="A90" s="21">
         <f>A85+1</f>
         <v>42257</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
+      <c r="C90" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="12">
+      <c r="A93" s="21">
         <f>A90+1</f>
         <v>42258</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
+      <c r="C93" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2182,6 +2338,777 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>42219</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <f>A34+1</f>
+        <v>42220</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <f>A37+1</f>
+        <v>42221</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <f>A39+1</f>
+        <v>42222</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <f>A42+1</f>
+        <v>42223</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <f>A44+1</f>
+        <v>42224</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <f t="shared" ref="A47:A69" si="0">A46+1</f>
+        <v>42225</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <f>A47+1</f>
+        <v>42226</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <f>A49+1</f>
+        <v>42227</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <f>A51+1</f>
+        <v>42228</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <f>A53+1</f>
+        <v>42229</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <f>A55+1</f>
+        <v>42230</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <f t="shared" si="0"/>
+        <v>42231</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <f t="shared" si="0"/>
+        <v>42232</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <f t="shared" si="0"/>
+        <v>42233</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <f t="shared" si="0"/>
+        <v>42234</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <f t="shared" si="0"/>
+        <v>42235</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <f t="shared" si="0"/>
+        <v>42236</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <f>A64+1</f>
+        <v>42237</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <f t="shared" si="0"/>
+        <v>42238</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <f t="shared" si="0"/>
+        <v>42239</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>42247</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <f>A70+1</f>
+        <v>42248</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>42261</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="26"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="26"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21">
+        <f>A77+1</f>
+        <v>42262</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="26"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="26"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
+        <f>A81+1</f>
+        <v>42263</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="26"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="26"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="26"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <f>A85+1</f>
+        <v>42264</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="26"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="26"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <f>A90+1</f>
+        <v>42265</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="26"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="26"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="26"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A4"/>
   <sheetViews>
@@ -2203,7 +3130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
